--- a/5/6/7/Compras con pacto (REPO) por plazo 2005 a 2021 - Mensual.xlsx
+++ b/5/6/7/Compras con pacto (REPO) por plazo 2005 a 2021 - Mensual.xlsx
@@ -1952,6 +1952,9 @@
       <c r="A89" t="s">
         <v>109</v>
       </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
       <c r="Q89">
         <v>0</v>
       </c>
